--- a/analysis/non-heuristic planning solution searches result.xlsx
+++ b/analysis/non-heuristic planning solution searches result.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Raw analysis" sheetId="2" r:id="rId1"/>
+    <sheet name="Analysis for submission" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>breadth_first_search</t>
   </si>
@@ -52,13 +53,42 @@
   </si>
   <si>
     <t>Plan Length</t>
+  </si>
+  <si>
+    <t>Nr node expansions</t>
+  </si>
+  <si>
+    <t>Time elapsed [s]</t>
+  </si>
+  <si>
+    <t>Best Result</t>
+  </si>
+  <si>
+    <t>Optimality [%]</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Optimality [Relative]</t>
+  </si>
+  <si>
+    <t>breadth_first</t>
+  </si>
+  <si>
+    <t>depth_first_graph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,8 +96,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,8 +139,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -89,17 +159,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="60"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F085BF82-F377-4EB1-8BA0-D118CCB1EAC5}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -403,64 +600,64 @@
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -501,7 +698,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -542,7 +739,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -590,4 +787,374 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26ECCDEA-7BF0-4662-8493-8E2B81DD66BF}">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.26953125" customWidth="1"/>
+    <col min="8" max="8" width="4.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1796875" customWidth="1"/>
+    <col min="13" max="13" width="5.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7265625" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" s="5" customFormat="1" ht="83" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1.8091454E-2</v>
+      </c>
+      <c r="D3" s="24">
+        <v>6</v>
+      </c>
+      <c r="E3" s="25">
+        <f>1/(B3*POWER(D3,$D$8))</f>
+        <v>6.459948320413437E-4</v>
+      </c>
+      <c r="F3" s="26">
+        <f>E3/E$7</f>
+        <v>0.48837209302325585</v>
+      </c>
+      <c r="G3" s="22">
+        <v>3343</v>
+      </c>
+      <c r="H3" s="23">
+        <v>6.4508448779999998</v>
+      </c>
+      <c r="I3" s="24">
+        <v>9</v>
+      </c>
+      <c r="J3" s="25">
+        <f>1/(G3*POWER(I3,$D$8))</f>
+        <v>3.6929940210426797E-6</v>
+      </c>
+      <c r="K3" s="26">
+        <f>J3/J$7</f>
+        <v>0.1866586897995812</v>
+      </c>
+      <c r="L3" s="22">
+        <v>14663</v>
+      </c>
+      <c r="M3" s="23">
+        <v>33.959942339999998</v>
+      </c>
+      <c r="N3" s="24">
+        <v>12</v>
+      </c>
+      <c r="O3" s="25">
+        <f>1/(L3*POWER(N3,$D$8))</f>
+        <v>4.7360324929717276E-7</v>
+      </c>
+      <c r="P3" s="26">
+        <f>O3/O$7</f>
+        <v>2.7825138102707491E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="22">
+        <v>21</v>
+      </c>
+      <c r="C4" s="23">
+        <v>8.7875550000000007E-3</v>
+      </c>
+      <c r="D4" s="24">
+        <v>20</v>
+      </c>
+      <c r="E4" s="25">
+        <f>1/(B4*POWER(D4,$D$8))</f>
+        <v>1.1904761904761905E-4</v>
+      </c>
+      <c r="F4" s="26">
+        <f>E4/E$7</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="G4" s="22">
+        <v>624</v>
+      </c>
+      <c r="H4" s="23">
+        <v>2.4912660980000001</v>
+      </c>
+      <c r="I4" s="24">
+        <v>619</v>
+      </c>
+      <c r="J4" s="25">
+        <f>1/(G4*POWER(I4,$D$8))</f>
+        <v>4.1824823052557606E-9</v>
+      </c>
+      <c r="K4" s="26">
+        <f>J4/J$7</f>
+        <v>2.1139938563684716E-4</v>
+      </c>
+      <c r="L4" s="22">
+        <v>408</v>
+      </c>
+      <c r="M4" s="23">
+        <v>1.3619202880000001</v>
+      </c>
+      <c r="N4" s="24">
+        <v>392</v>
+      </c>
+      <c r="O4" s="25">
+        <f>1/(L4*POWER(N4,$D$8))</f>
+        <v>1.5950257654082041E-8</v>
+      </c>
+      <c r="P4" s="26">
+        <f>O4/O$7</f>
+        <v>9.3710953769262804E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22">
+        <v>55</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2.2538500999999999E-2</v>
+      </c>
+      <c r="D5" s="24">
+        <v>6</v>
+      </c>
+      <c r="E5" s="25">
+        <f>1/(B5*POWER(D5,$D$8))</f>
+        <v>5.0505050505050505E-4</v>
+      </c>
+      <c r="F5" s="26">
+        <f>E5/E$7</f>
+        <v>0.38181818181818183</v>
+      </c>
+      <c r="G5" s="22">
+        <v>4853</v>
+      </c>
+      <c r="H5" s="23">
+        <v>9.2177382140000006</v>
+      </c>
+      <c r="I5" s="24">
+        <v>9</v>
+      </c>
+      <c r="J5" s="25">
+        <f>1/(G5*POWER(I5,$D$8))</f>
+        <v>2.5439272640316669E-6</v>
+      </c>
+      <c r="K5" s="26">
+        <f>J5/J$7</f>
+        <v>0.12858025963321656</v>
+      </c>
+      <c r="L5" s="22">
+        <v>18223</v>
+      </c>
+      <c r="M5" s="23">
+        <v>42.049525330000002</v>
+      </c>
+      <c r="N5" s="24">
+        <v>12</v>
+      </c>
+      <c r="O5" s="25">
+        <f>1/(L5*POWER(N5,$D$8))</f>
+        <v>3.8108129531056601E-7</v>
+      </c>
+      <c r="P5" s="26">
+        <f>O5/O$7</f>
+        <v>2.2389288262086374E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="27"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="29">
+        <f>MIN(B3:B5)</f>
+        <v>21</v>
+      </c>
+      <c r="C7" s="30">
+        <f>MIN(C3:C5)</f>
+        <v>8.7875550000000007E-3</v>
+      </c>
+      <c r="D7" s="31">
+        <f>MIN(D3:D5)</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="32">
+        <f>1/(B7*POWER(D7,$D$8))</f>
+        <v>1.3227513227513227E-3</v>
+      </c>
+      <c r="F7" s="33">
+        <f>E7/E$7</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="29">
+        <f>MIN(G3:G5)</f>
+        <v>624</v>
+      </c>
+      <c r="H7" s="30">
+        <f>MIN(H3:H5)</f>
+        <v>2.4912660980000001</v>
+      </c>
+      <c r="I7" s="31">
+        <f>MIN(I3:I5)</f>
+        <v>9</v>
+      </c>
+      <c r="J7" s="32">
+        <f>1/(G7*POWER(I7,$D$8))</f>
+        <v>1.9784742006964229E-5</v>
+      </c>
+      <c r="K7" s="33">
+        <f>J7/J$7</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="29">
+        <f>MIN(L3:L5)</f>
+        <v>408</v>
+      </c>
+      <c r="M7" s="30">
+        <f>MIN(M3:M5)</f>
+        <v>1.3619202880000001</v>
+      </c>
+      <c r="N7" s="31">
+        <f>MIN(N3:N5)</f>
+        <v>12</v>
+      </c>
+      <c r="O7" s="32">
+        <f>1/(L7*POWER(N7,$D$8))</f>
+        <v>1.7020697167755993E-5</v>
+      </c>
+      <c r="P7" s="33">
+        <f>O7/O$7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E7" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>